--- a/fixtures/output/01043110000366247_acute_chem_max.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_max.xlsx
@@ -19,10 +19,10 @@
     <t>Pollutant</t>
   </si>
   <si>
-    <t>Conc (µg/m3)</t>
-  </si>
-  <si>
-    <t>Conc sci (µg/m3)</t>
+    <t>Conc (ug/m3)</t>
+  </si>
+  <si>
+    <t>Conc sci (ug/m3)</t>
   </si>
   <si>
     <t>Aegl_1 1hr (mg/m3)</t>

--- a/fixtures/output/01043110000366247_acute_chem_max.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_max.xlsx
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>22</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>3776824</v>
       </c>
       <c r="X2" t="n">
-        <v>34.1321878108</v>
+        <v>34.1321878099</v>
       </c>
       <c r="Y2" t="n">
         <v>-86.8429036877</v>
@@ -669,13 +669,13 @@
         <v>1100</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>7.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>37</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>3776824</v>
       </c>
       <c r="X3" t="n">
-        <v>34.1321878108</v>
+        <v>34.1321878099</v>
       </c>
       <c r="Y3" t="n">
         <v>-86.8429036877</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>22</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>3776824</v>
       </c>
       <c r="X4" t="n">
-        <v>34.1321878108</v>
+        <v>34.1321878099</v>
       </c>
       <c r="Y4" t="n">
         <v>-86.8429036877</v>
